--- a/2020/January/All Details/21.01.2020/MC Balance Transfer Jan'2020.xlsx
+++ b/2020/January/All Details/21.01.2020/MC Balance Transfer Jan'2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\20.01.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\21.01.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D4C66F-6F62-4981-AF78-20053C52A352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE00A88-EA6D-4461-AFF7-5FD08F1C4DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -329,6 +329,15 @@
   </si>
   <si>
     <t>Desh Telecom</t>
+  </si>
+  <si>
+    <t>21.01.2020</t>
+  </si>
+  <si>
+    <t>Mobile Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSR Murad </t>
   </si>
 </sst>
 </file>
@@ -1630,9 +1639,9 @@
   <dimension ref="A1:BI232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3336,21 +3345,33 @@
       <c r="BI22" s="7"/>
     </row>
     <row r="23" spans="1:61" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="2">
+        <v>495190</v>
+      </c>
+      <c r="C23" s="2">
+        <v>361760</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1365</v>
+      </c>
       <c r="E23" s="2">
         <f>C23+D23</f>
-        <v>0</v>
+        <v>363125</v>
       </c>
       <c r="F23" s="135"/>
       <c r="G23" s="19"/>
       <c r="H23" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="I23" s="64">
+        <v>11760</v>
+      </c>
+      <c r="J23" s="64" t="s">
+        <v>88</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="19"/>
       <c r="M23" s="7"/>
@@ -4087,23 +4108,23 @@
       </c>
       <c r="B34" s="2">
         <f>SUM(B6:B33)</f>
-        <v>5350480</v>
+        <v>5845670</v>
       </c>
       <c r="C34" s="2">
         <f>SUM(C6:C33)</f>
-        <v>5364409</v>
+        <v>5726169</v>
       </c>
       <c r="D34" s="2">
         <f>SUM(D6:D33)</f>
-        <v>18472</v>
+        <v>19837</v>
       </c>
       <c r="E34" s="2">
         <f>SUM(E6:E33)</f>
-        <v>5382881</v>
+        <v>5746006</v>
       </c>
       <c r="F34" s="94">
         <f>B34-E34</f>
-        <v>-32401</v>
+        <v>99664</v>
       </c>
       <c r="G34" s="114"/>
       <c r="H34" s="124"/>
@@ -4658,10 +4679,10 @@
         <v>80</v>
       </c>
       <c r="C42" s="2">
-        <v>11080</v>
-      </c>
-      <c r="D42" s="1">
-        <v>4080</v>
+        <v>12100</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="135"/>
@@ -4868,7 +4889,7 @@
       <c r="A45" s="73"/>
       <c r="B45" s="74"/>
       <c r="C45" s="75">
-        <v>4100</v>
+        <v>9640</v>
       </c>
       <c r="D45" s="76"/>
       <c r="E45" s="3"/>
@@ -5056,10 +5077,16 @@
       <c r="BI47" s="7"/>
     </row>
     <row r="48" spans="1:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="104"/>
+      <c r="A48" s="104" t="s">
+        <v>26</v>
+      </c>
       <c r="B48" s="97"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="99"/>
+      <c r="C48" s="98">
+        <v>80000</v>
+      </c>
+      <c r="D48" s="99" t="s">
+        <v>23</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -5118,14 +5145,14 @@
     </row>
     <row r="49" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="105" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B49" s="97"/>
       <c r="C49" s="98">
-        <v>80000</v>
+        <v>300910</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="12"/>
@@ -5184,16 +5211,10 @@
       <c r="BI49" s="7"/>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A50" s="100" t="s">
-        <v>27</v>
-      </c>
+      <c r="A50" s="100"/>
       <c r="B50" s="43"/>
-      <c r="C50" s="98">
-        <v>99410</v>
-      </c>
-      <c r="D50" s="99" t="s">
-        <v>86</v>
-      </c>
+      <c r="C50" s="98"/>
+      <c r="D50" s="99"/>
       <c r="E50" s="3"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
@@ -5252,14 +5273,14 @@
     </row>
     <row r="51" spans="1:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="105" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B51" s="43"/>
       <c r="C51" s="98">
-        <v>300910</v>
+        <v>98660</v>
       </c>
       <c r="D51" s="102" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="12"/>
@@ -5323,10 +5344,10 @@
       </c>
       <c r="B52" s="43"/>
       <c r="C52" s="98">
-        <v>259545</v>
+        <v>404835</v>
       </c>
       <c r="D52" s="99" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="43"/>
@@ -5461,10 +5482,10 @@
       </c>
       <c r="B54" s="97"/>
       <c r="C54" s="106">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="D54" s="99" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="64"/>
@@ -5664,10 +5685,10 @@
       </c>
       <c r="B57" s="43"/>
       <c r="C57" s="98">
-        <v>69480</v>
+        <v>47190</v>
       </c>
       <c r="D57" s="97" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="43"/>
@@ -5940,10 +5961,10 @@
       </c>
       <c r="B61" s="43"/>
       <c r="C61" s="98">
-        <v>25765</v>
+        <v>26420</v>
       </c>
       <c r="D61" s="99" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="43"/>
@@ -6004,10 +6025,16 @@
       <c r="BI61" s="7"/>
     </row>
     <row r="62" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="100"/>
+      <c r="A62" s="100" t="s">
+        <v>89</v>
+      </c>
       <c r="B62" s="43"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="99"/>
+      <c r="C62" s="98">
+        <v>6600</v>
+      </c>
+      <c r="D62" s="99" t="s">
+        <v>88</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="19"/>
       <c r="G62" s="8"/>
@@ -6138,10 +6165,16 @@
       <c r="BI63" s="7"/>
     </row>
     <row r="64" spans="1:61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="100"/>
+      <c r="A64" s="100" t="s">
+        <v>90</v>
+      </c>
       <c r="B64" s="43"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="99"/>
+      <c r="C64" s="98">
+        <v>7000</v>
+      </c>
+      <c r="D64" s="99" t="s">
+        <v>88</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="63"/>
       <c r="G64" s="13"/>
@@ -8640,7 +8673,7 @@
       <c r="B99" s="159"/>
       <c r="C99" s="45">
         <f>SUM(C38:C98)</f>
-        <v>1445809</v>
+        <v>1577874</v>
       </c>
       <c r="D99" s="41"/>
       <c r="F99" s="23"/>
@@ -8775,7 +8808,7 @@
       <c r="B101" s="157"/>
       <c r="C101" s="42">
         <f>C99+L122</f>
-        <v>1445809</v>
+        <v>1577874</v>
       </c>
       <c r="D101" s="26"/>
       <c r="F101" s="24"/>
